--- a/Pennoni YounglingsPLAYOFFS.xlsx
+++ b/Pennoni YounglingsPLAYOFFS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,46 +58,46 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 11 - 0</t>
-  </si>
-  <si>
-    <t>7 - 8 - 0</t>
-  </si>
-  <si>
-    <t>11 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 10 - 0</t>
-  </si>
-  <si>
-    <t>8 - 7 - 0</t>
-  </si>
-  <si>
-    <t>9 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 9 - 0</t>
-  </si>
-  <si>
-    <t>10 - 5 - 0</t>
-  </si>
-  <si>
-    <t>12 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 13 - 0</t>
-  </si>
-  <si>
-    <t>13 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 14 - 0</t>
-  </si>
-  <si>
-    <t>3 - 12 - 0</t>
-  </si>
-  <si>
-    <t>14 - 1 - 0</t>
+    <t>5 - 11 - 0</t>
+  </si>
+  <si>
+    <t>8 - 8 - 0</t>
+  </si>
+  <si>
+    <t>11 - 5 - 0</t>
+  </si>
+  <si>
+    <t>9 - 7 - 0</t>
+  </si>
+  <si>
+    <t>10 - 6 - 0</t>
+  </si>
+  <si>
+    <t>7 - 9 - 0</t>
+  </si>
+  <si>
+    <t>6 - 10 - 0</t>
+  </si>
+  <si>
+    <t>13 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 14 - 0</t>
+  </si>
+  <si>
+    <t>12 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 12 - 0</t>
+  </si>
+  <si>
+    <t>3 - 13 - 0</t>
+  </si>
+  <si>
+    <t>1 - 15 - 0</t>
+  </si>
+  <si>
+    <t>14 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -121,37 +121,34 @@
     <t>↑2</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑12</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓12</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
 </sst>
 </file>
@@ -564,37 +561,37 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -608,34 +605,34 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -646,25 +643,25 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -673,10 +670,10 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -684,40 +681,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -725,40 +722,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -766,40 +763,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -807,40 +804,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -848,40 +845,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -892,37 +889,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -930,40 +927,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -974,37 +971,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1015,37 +1012,37 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +1077,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1094,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1105,13 +1102,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7.25</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1119,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1133,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1147,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.583333333333333</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1161,13 +1158,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1178,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1189,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7.75</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1203,13 +1200,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>7.833333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1217,13 +1214,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1234,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>8.75</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1275,13 +1272,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11.83333333333333</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>-1.166666666666666</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1292,13 +1289,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>9.75</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>-1.666666666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1306,16 +1303,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8.833333333333334</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D4">
-        <v>-0.1666666666666661</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1323,16 +1320,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8.416666666666666</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D5">
-        <v>0.4166666666666661</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1340,16 +1337,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>8.416666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333339</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1360,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.833333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D7">
-        <v>0.833333333333333</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1377,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>7.166666666666667</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1394,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>1.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1417,7 +1414,7 @@
         <v>-0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1428,13 +1425,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.25</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1445,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="D12">
         <v>0.75</v>
@@ -1462,13 +1459,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -1523,10 +1520,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1540,10 +1537,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -1557,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1574,10 +1571,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1588,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1605,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1625,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1642,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1659,13 +1656,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1676,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1693,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
